--- a/logtache.xlsx
+++ b/logtache.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Membre1" sheetId="1" r:id="rId1"/>
     <sheet name="Membre2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -118,13 +118,118 @@
   </si>
   <si>
     <t>long, très long</t>
+  </si>
+  <si>
+    <t>Création des Classes de base du programmes. Début de l'héritage des classes les plus importante. Création de game.cpp, game.h,movable.cpp,movable.h,entity,cpp,entity.h, character.cpp,character.h, enemy.cpp, enemy.h, projectile.cpp,projectile.h,ainsi que tout les fichier des bonus.</t>
+  </si>
+  <si>
+    <t>Aucune</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Modifications des classes précédentes</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>Implémentation de plusieurs classes de base ainsi que la création /modification et rechrche d'assest tel que le scrolling background.</t>
+  </si>
+  <si>
+    <t>aucune</t>
+  </si>
+  <si>
+    <t>Implémentation du personnage dans la view ainsi que tout ce qui faut pour le faire apparaitre. Tout ceci avec l'héritage. Ceci comprends également la modification des sprites pour ce dernier.</t>
+  </si>
+  <si>
+    <t>Céation et début de l'implémentaion des classes scrolling background.</t>
+  </si>
+  <si>
+    <t>Bien synchroniser les backgrounds</t>
+  </si>
+  <si>
+    <t>Gestion des fichiers du projets</t>
+  </si>
+  <si>
+    <t>Scrolling background scroll et est synchroniser avec le personnage</t>
+  </si>
+  <si>
+    <t>Difficile</t>
+  </si>
+  <si>
+    <t>Background est synchroniser avec le personnage</t>
+  </si>
+  <si>
+    <t>probleme de posisiton</t>
+  </si>
+  <si>
+    <t>le personnage peut suivre la vue qui avance automatiquement ,le background suit egalement la view</t>
+  </si>
+  <si>
+    <t>Synchroniser view + personnage + scrolling background a 4 layer</t>
+  </si>
+  <si>
+    <t>Début de l'implémentation des collisions</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Collisions ainsi que gestion de la map a partir du fichier texte</t>
+  </si>
+  <si>
+    <t>Classes turret et sprite turret réalisé ( pour les 2 sortes de turrets)</t>
+  </si>
+  <si>
+    <t>Sprite et classes kamikaze fontionne partiellement</t>
+  </si>
+  <si>
+    <t>Les collisions sont dur a gerer</t>
+  </si>
+  <si>
+    <t>Création de classes explosion et modification de sprite explosion pour la gestion des kamikaze et projectiles</t>
+  </si>
+  <si>
+    <t>Création et début d'implémentation de tout le projectiles</t>
+  </si>
+  <si>
+    <t>La chasse au memory leaks</t>
+  </si>
+  <si>
+    <t>Comment delete un tab**</t>
+  </si>
+  <si>
+    <t>Regler les probleme de git hub</t>
+  </si>
+  <si>
+    <t>git hub</t>
+  </si>
+  <si>
+    <t>Tout les bonus , ainsi que le bonus mananger , leurs sprite et la classe observer sont implémenté et créer</t>
+  </si>
+  <si>
+    <t>modif des projectile d'antoine</t>
+  </si>
+  <si>
+    <t>implémentaion de boss, sprite de boss et factory de kamikaze</t>
+  </si>
+  <si>
+    <t>2017-11 ( du 16 au 20)</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Mes commit sont pas très claire mais beaucoup de temps retrapper ainsi que de gestion de bug a Antoine. Je dois finir c'est partit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,7 +437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,27 +469,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,24 +503,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,14 +678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -624,7 +693,7 @@
     <col min="4" max="4" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -632,7 +701,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="6">
         <v>43063</v>
       </c>
@@ -660,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="9">
         <v>43063</v>
       </c>
@@ -674,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45">
       <c r="A5" s="9">
         <v>43067</v>
       </c>
@@ -688,7 +757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="9">
         <v>43069</v>
       </c>
@@ -700,7 +769,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="9">
         <v>43069</v>
       </c>
@@ -714,7 +783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="9">
         <v>43074</v>
       </c>
@@ -728,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="9">
         <v>43076</v>
       </c>
@@ -740,7 +809,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="9">
         <v>43080</v>
       </c>
@@ -754,7 +823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="60">
       <c r="A11" s="9">
         <v>43084</v>
       </c>
@@ -768,7 +837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="9">
         <v>43080</v>
       </c>
@@ -782,7 +851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="9">
         <v>43086</v>
       </c>
@@ -794,7 +863,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="9">
         <v>43089</v>
       </c>
@@ -808,97 +877,97 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
@@ -914,22 +983,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -937,7 +1006,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,169 +1020,325 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
+    <row r="3" spans="1:4" ht="122.25" customHeight="1">
+      <c r="A3" s="6">
+        <v>43063</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="52.5" customHeight="1">
+      <c r="A4" s="9">
+        <v>43063</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="83.25" customHeight="1">
+      <c r="A5" s="9">
+        <v>43066</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="69.75" customHeight="1">
+      <c r="A6" s="9">
+        <v>43067</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A7" s="9">
+        <v>43068</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="44.25" customHeight="1">
+      <c r="A8" s="9">
+        <v>43068</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="54.75" customHeight="1">
+      <c r="A9" s="9">
+        <v>43068</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" customHeight="1">
+      <c r="A10" s="9">
+        <v>43069</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39" customHeight="1">
+      <c r="A11" s="9">
+        <v>43069</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A12" s="9">
+        <v>43070</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A13" s="9">
+        <v>43041</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A14" s="9">
+        <v>43042</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57" customHeight="1">
+      <c r="A15" s="9">
+        <v>43044</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A16" s="9">
+        <v>43045</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
+    <row r="17" spans="1:4" ht="44.25" customHeight="1">
+      <c r="A17" s="9">
+        <v>43046</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
+    <row r="18" spans="1:4" ht="45.75" customHeight="1">
+      <c r="A18" s="9">
+        <v>43047</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="46.5" customHeight="1">
+      <c r="A19" s="9">
+        <v>43048</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" customHeight="1">
+      <c r="A20" s="9">
+        <v>43050</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
+    <row r="21" spans="1:4" ht="66.75" customHeight="1">
+      <c r="A21" s="9">
+        <v>43052</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="1:4" ht="51" customHeight="1">
+      <c r="A22" s="9">
+        <v>43054</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
+    <row r="23" spans="1:4" ht="65.25" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="51.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="51.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="38.25" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="32.25" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="39" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="42.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="56.25" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
@@ -1128,14 +1353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED2D746-8627-458B-A5E4-E4E319A058DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
